--- a/data/trans_orig/P20D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D96FF52-113B-4B22-9D6D-A2C55C02EE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90FEF500-FD2A-45D8-8F6D-129F380F598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE242884-DBEA-4373-A50A-76B7F5427E8C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3EDF299A-4D8A-4FA2-B68D-2BACAF62ACF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="219">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por un hombre en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>20,67%</t>
   </si>
   <si>
-    <t>71,14%</t>
+    <t>72,47%</t>
   </si>
   <si>
     <t>36,87%</t>
   </si>
   <si>
-    <t>84,19%</t>
+    <t>84,78%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -101,16 +101,16 @@
     <t>37,24%</t>
   </si>
   <si>
-    <t>86,08%</t>
+    <t>83,52%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
@@ -125,19 +125,19 @@
     <t>42,09%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -149,76 +149,76 @@
     <t>51,31%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
   </si>
   <si>
     <t>32,01%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>45,71%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
   </si>
   <si>
     <t>31,37%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>50,38%</t>
+    <t>49,0%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>47,43%</t>
+    <t>49,24%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -227,37 +227,37 @@
     <t>67,25%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>54,4%</t>
   </si>
   <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -266,34 +266,34 @@
     <t>13,23%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>35,82%</t>
+    <t>42,53%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -302,25 +302,25 @@
     <t>88,11%</t>
   </si>
   <si>
-    <t>52,53%</t>
+    <t>50,23%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
   </si>
   <si>
     <t>51,43%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -335,25 +335,25 @@
     <t>11,89%</t>
   </si>
   <si>
-    <t>47,47%</t>
+    <t>49,77%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -368,325 +368,328 @@
     <t>53,95%</t>
   </si>
   <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>22,92%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>52,54%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1101,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6204F682-D5F8-42FC-95B0-4415A8492024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDE62FB-3A31-432D-8BAC-2B98B0CD9438}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2530,10 +2533,10 @@
         <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2542,13 +2545,13 @@
         <v>4851</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2566,13 @@
         <v>1099</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -2578,13 +2581,13 @@
         <v>6622</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2593,13 +2596,13 @@
         <v>7720</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,7 +2658,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2667,10 +2670,10 @@
         <v>6602</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -2682,10 +2685,10 @@
         <v>2254</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>175</v>
@@ -2754,7 +2757,7 @@
         <v>185</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2787,13 @@
         <v>565</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2799,13 +2802,13 @@
         <v>565</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2876,13 @@
         <v>41770</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
@@ -2888,13 +2891,13 @@
         <v>18290</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M36" s="7">
         <v>84</v>
@@ -2903,13 +2906,13 @@
         <v>60060</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2927,13 @@
         <v>14434</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -2939,13 +2942,13 @@
         <v>7205</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
@@ -2954,13 +2957,13 @@
         <v>21640</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2978,13 @@
         <v>9019</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H38" s="7">
         <v>40</v>
@@ -2990,13 +2993,13 @@
         <v>28222</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M38" s="7">
         <v>51</v>
@@ -3005,13 +3008,13 @@
         <v>37240</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,7 +3070,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90FEF500-FD2A-45D8-8F6D-129F380F598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9619C1E-ABF6-452C-89A7-A581763E2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3EDF299A-4D8A-4FA2-B68D-2BACAF62ACF9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A41C882-2A6A-4ED0-8721-F56E43B35603}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDE62FB-3A31-432D-8BAC-2B98B0CD9438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786AAF97-9CF8-46BD-9D54-0F42B333A9CF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9619C1E-ABF6-452C-89A7-A581763E2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F6C52F-B6BE-4EA7-965B-550C6F05CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A41C882-2A6A-4ED0-8721-F56E43B35603}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{548CA469-4A44-4481-8ED9-94CC28856EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="218">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por un hombre en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>20,67%</t>
   </si>
   <si>
-    <t>72,47%</t>
+    <t>71,14%</t>
   </si>
   <si>
     <t>36,87%</t>
   </si>
   <si>
-    <t>84,78%</t>
+    <t>84,19%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -101,373 +101,373 @@
     <t>37,24%</t>
   </si>
   <si>
-    <t>83,52%</t>
+    <t>86,08%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>7,68%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>Sí, todo o casi todo el tiempo</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
   <si>
     <t>82,15%</t>
   </si>
   <si>
-    <t>Sí, todo o casi todo el tiempo</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>60,72%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>61,8%</t>
+    <t>64,83%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>38,2%</t>
+    <t>35,17%</t>
   </si>
   <si>
     <t>43,33%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -476,76 +476,79 @@
     <t>59,17%</t>
   </si>
   <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>46,81%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
   </si>
   <si>
     <t>29,22%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>32,73%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>53,5%</t>
+    <t>47,7%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -560,19 +563,16 @@
     <t>44,39%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
     <t>84,41%</t>
   </si>
   <si>
     <t>65,48%</t>
   </si>
   <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>21,85%</t>
@@ -593,10 +593,7 @@
     <t>30,34%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
+    <t>10,98%</t>
   </si>
   <si>
     <t>11,13%</t>
@@ -608,88 +605,88 @@
     <t>4,18%</t>
   </si>
   <si>
-    <t>23,81%</t>
+    <t>23,25%</t>
   </si>
   <si>
     <t>64,04%</t>
   </si>
   <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
   </si>
   <si>
     <t>34,05%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>13,83%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>52,54%</t>
   </si>
   <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>31,31%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1104,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786AAF97-9CF8-46BD-9D54-0F42B333A9CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F08C0A-852C-46A3-A419-9297AE20C667}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2533,10 +2530,10 @@
         <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -2545,13 +2542,13 @@
         <v>4851</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2563,13 @@
         <v>1099</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -2581,13 +2578,13 @@
         <v>6622</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2596,13 +2593,13 @@
         <v>7720</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2655,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2670,10 +2667,10 @@
         <v>6602</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -2685,10 +2682,10 @@
         <v>2254</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>175</v>
@@ -2757,7 +2754,7 @@
         <v>185</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2784,13 @@
         <v>565</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -2802,13 +2799,13 @@
         <v>565</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2873,13 @@
         <v>41770</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
@@ -2891,13 +2888,13 @@
         <v>18290</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M36" s="7">
         <v>84</v>
@@ -2906,13 +2903,13 @@
         <v>60060</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2924,13 @@
         <v>14434</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -2942,13 +2939,13 @@
         <v>7205</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
@@ -2957,13 +2954,13 @@
         <v>21640</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2975,13 @@
         <v>9019</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H38" s="7">
         <v>40</v>
@@ -2993,13 +2990,13 @@
         <v>28222</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M38" s="7">
         <v>51</v>
@@ -3008,13 +3005,13 @@
         <v>37240</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,7 +3067,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20D1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F6C52F-B6BE-4EA7-965B-550C6F05CD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88BC0E69-ACE7-496A-9710-7D6DD4C9AD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{548CA469-4A44-4481-8ED9-94CC28856EBB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9B581E42-CCCB-4DF1-8605-C50824C95987}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="217">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por un hombre en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>56,88%</t>
+    <t>56,09%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -80,37 +80,37 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
   </si>
   <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
@@ -122,22 +122,22 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,181 +146,178 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -332,361 +329,361 @@
     <t>7,61%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>68,0%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1101,7 +1098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F08C0A-852C-46A3-A419-9297AE20C667}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390F2E7F-A7A4-4D79-AEE2-B2693D963DB0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1222,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1196</v>
+        <v>1387</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1237,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1252,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1734</v>
+        <v>1932</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1273,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>907</v>
+        <v>1085</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1288,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>968</v>
+        <v>1016</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1303,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>1875</v>
+        <v>2101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>22</v>
@@ -1339,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>1093</v>
+        <v>1121</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -1354,7 +1351,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>1094</v>
+        <v>1121</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>31</v>
@@ -1375,7 +1372,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2103</v>
+        <v>2472</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>34</v>
@@ -1390,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>2598</v>
+        <v>2683</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1405,7 +1402,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>4702</v>
+        <v>5154</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>34</v>
@@ -1428,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>8078</v>
+        <v>7629</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1443,31 +1440,31 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2061</v>
+        <v>1938</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>10138</v>
+        <v>9567</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1479,46 +1476,46 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>4940</v>
+        <v>4927</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>788</v>
+        <v>730</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>5728</v>
+        <v>5658</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1530,46 +1527,46 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2726</v>
+        <v>2647</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>3590</v>
+        <v>3422</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>6316</v>
+        <v>6068</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>15744</v>
+        <v>15203</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>34</v>
@@ -1596,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>6439</v>
+        <v>6090</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>34</v>
@@ -1611,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="N11" s="7">
-        <v>22182</v>
+        <v>21293</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>34</v>
@@ -1625,7 +1622,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1634,46 +1631,46 @@
         <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>7706</v>
+        <v>7431</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>2505</v>
+        <v>2339</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>10211</v>
+        <v>9770</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,16 +1682,16 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2484</v>
+        <v>2439</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1709,22 +1706,22 @@
         <v>26</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>2484</v>
+        <v>2439</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,46 +1733,46 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1269</v>
+        <v>1192</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>4807</v>
+        <v>4474</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>6077</v>
+        <v>5667</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,7 +1784,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>11459</v>
+        <v>11062</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>34</v>
@@ -1802,7 +1799,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>7312</v>
+        <v>6813</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>34</v>
@@ -1817,7 +1814,7 @@
         <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>18771</v>
+        <v>17876</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>34</v>
@@ -1831,7 +1828,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1840,13 +1837,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>7971</v>
+        <v>7629</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1855,31 +1852,31 @@
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>2422</v>
+        <v>2256</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>10393</v>
+        <v>9885</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,7 +1897,7 @@
         <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1915,7 +1912,7 @@
         <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1930,7 +1927,7 @@
         <v>26</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,46 +1939,46 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1076</v>
+        <v>1034</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>8739</v>
+        <v>8084</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>9815</v>
+        <v>9119</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,7 +1990,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>9047</v>
+        <v>8663</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>34</v>
@@ -2008,7 +2005,7 @@
         <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>11161</v>
+        <v>10340</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>34</v>
@@ -2023,7 +2020,7 @@
         <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>20208</v>
+        <v>19004</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -2037,7 +2034,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2046,10 +2043,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1182</v>
+        <v>1075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
@@ -2061,10 +2058,10 @@
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>848</v>
+        <v>772</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
@@ -2076,16 +2073,16 @@
         <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>2030</v>
+        <v>1847</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,16 +2103,16 @@
         <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
@@ -2127,16 +2124,16 @@
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,10 +2145,10 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1341</v>
+        <v>1208</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
@@ -2172,22 +2169,22 @@
         <v>26</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1341</v>
+        <v>1208</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,7 +2196,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="7">
-        <v>2523</v>
+        <v>2283</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>34</v>
@@ -2214,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>1240</v>
+        <v>1130</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>34</v>
@@ -2229,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>3763</v>
+        <v>3413</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>34</v>
@@ -2243,7 +2240,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2252,16 +2249,16 @@
         <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>3435</v>
+        <v>3325</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2276,22 +2273,22 @@
         <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>3435</v>
+        <v>3325</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,46 +2300,46 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>1492</v>
+        <v>1446</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>714</v>
+        <v>665</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>2206</v>
+        <v>2112</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,28 +2351,28 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>1508</v>
+        <v>1449</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>2805</v>
+        <v>2619</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>13</v>
@@ -2384,16 +2381,16 @@
         <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>4313</v>
+        <v>4067</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="7">
-        <v>6435</v>
+        <v>6220</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>34</v>
@@ -2420,7 +2417,7 @@
         <v>6</v>
       </c>
       <c r="I27" s="7">
-        <v>3519</v>
+        <v>3284</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>34</v>
@@ -2435,7 +2432,7 @@
         <v>18</v>
       </c>
       <c r="N27" s="7">
-        <v>9954</v>
+        <v>9504</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>34</v>
@@ -2449,7 +2446,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2458,46 +2455,46 @@
         <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>5599</v>
+        <v>5226</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
       </c>
       <c r="I28" s="7">
-        <v>7663</v>
+        <v>7129</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
       </c>
       <c r="N28" s="7">
-        <v>13263</v>
+        <v>12355</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,46 +2506,46 @@
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>2766</v>
+        <v>2632</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>2085</v>
+        <v>1976</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>4851</v>
+        <v>4609</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,46 +2557,46 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
       </c>
       <c r="I30" s="7">
-        <v>6622</v>
+        <v>6076</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
       </c>
       <c r="N30" s="7">
-        <v>7720</v>
+        <v>7191</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,7 +2608,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="7">
-        <v>9464</v>
+        <v>8973</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>34</v>
@@ -2626,7 +2623,7 @@
         <v>28</v>
       </c>
       <c r="I31" s="7">
-        <v>16370</v>
+        <v>15181</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>34</v>
@@ -2641,7 +2638,7 @@
         <v>38</v>
       </c>
       <c r="N31" s="7">
-        <v>25834</v>
+        <v>24155</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>34</v>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2664,13 +2661,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>6602</v>
+        <v>5770</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -2679,31 +2676,31 @@
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>2254</v>
+        <v>1923</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>12</v>
+      </c>
+      <c r="N32" s="7">
+        <v>7693</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M32" s="7">
-        <v>12</v>
-      </c>
-      <c r="N32" s="7">
-        <v>8857</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,46 +2712,46 @@
         <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>1846</v>
+        <v>1630</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
       </c>
       <c r="I33" s="7">
-        <v>2258</v>
+        <v>1919</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
       </c>
       <c r="N33" s="7">
-        <v>4104</v>
+        <v>3550</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,37 +2772,37 @@
         <v>26</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>565</v>
+        <v>479</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,7 +2814,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="7">
-        <v>8448</v>
+        <v>7400</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>34</v>
@@ -2832,7 +2829,7 @@
         <v>7</v>
       </c>
       <c r="I35" s="7">
-        <v>5078</v>
+        <v>4322</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>34</v>
@@ -2847,7 +2844,7 @@
         <v>18</v>
       </c>
       <c r="N35" s="7">
-        <v>13526</v>
+        <v>11722</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>34</v>
@@ -2870,46 +2867,46 @@
         <v>51</v>
       </c>
       <c r="D36" s="7">
-        <v>41770</v>
+        <v>39471</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
       </c>
       <c r="I36" s="7">
-        <v>18290</v>
+        <v>16902</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M36" s="7">
         <v>84</v>
       </c>
       <c r="N36" s="7">
-        <v>60060</v>
+        <v>56373</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,46 +2918,46 @@
         <v>15</v>
       </c>
       <c r="D37" s="7">
-        <v>14434</v>
+        <v>14161</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>12</v>
+      </c>
+      <c r="I37" s="7">
+        <v>6666</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H37" s="7">
-        <v>12</v>
-      </c>
-      <c r="I37" s="7">
-        <v>7205</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
       </c>
       <c r="N37" s="7">
-        <v>21640</v>
+        <v>20827</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,46 +2969,46 @@
         <v>11</v>
       </c>
       <c r="D38" s="7">
-        <v>9019</v>
+        <v>8645</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H38" s="7">
         <v>40</v>
       </c>
       <c r="I38" s="7">
-        <v>28222</v>
+        <v>26275</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M38" s="7">
         <v>51</v>
       </c>
       <c r="N38" s="7">
-        <v>37240</v>
+        <v>34920</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,7 +3020,7 @@
         <v>77</v>
       </c>
       <c r="D39" s="7">
-        <v>65223</v>
+        <v>62277</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>34</v>
@@ -3038,7 +3035,7 @@
         <v>85</v>
       </c>
       <c r="I39" s="7">
-        <v>53717</v>
+        <v>49843</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>34</v>
@@ -3053,7 +3050,7 @@
         <v>162</v>
       </c>
       <c r="N39" s="7">
-        <v>118940</v>
+        <v>112120</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>34</v>
@@ -3067,7 +3064,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
